--- a/robot/config/apicaseadmin.xlsx
+++ b/robot/config/apicaseadmin.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17940"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$M$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$M$245</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -501,231 +501,231 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="10" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="19" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="22" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="22" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="21" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -740,10 +740,10 @@
     </dxf>
     <dxf/>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1110,30 +1110,30 @@
   <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A231" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="H240" pane="bottomLeft" sqref="H240"/>
+      <selection pane="bottomLeft" activeCell="H240" sqref="H240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.25" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="7.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="16.8333333333333"/>
-    <col customWidth="1" max="4" min="4" style="1" width="32.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="6.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="22"/>
-    <col customWidth="1" max="7" min="7" style="1" width="32.125"/>
-    <col customWidth="1" max="8" min="8" style="2" width="11.0833333333333"/>
-    <col customWidth="1" max="9" min="9" style="1" width="22.0833333333333"/>
-    <col customWidth="1" max="10" min="10" style="1" width="24.5"/>
-    <col customWidth="1" max="11" min="11" style="1" width="104.25"/>
-    <col customWidth="1" max="12" min="12" style="1" width="66.75"/>
-    <col customWidth="1" max="13" min="13" style="1" width="11.125"/>
-    <col customWidth="1" max="16384" min="14" style="1" width="8.25"/>
+    <col width="9.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="16.8333333333333" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32.25" customWidth="1" style="1" min="4" max="4"/>
+    <col width="6.5" customWidth="1" style="1" min="5" max="5"/>
+    <col width="22" customWidth="1" style="1" min="6" max="6"/>
+    <col width="32.125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.0833333333333" customWidth="1" style="2" min="8" max="8"/>
+    <col width="22.0833333333333" customWidth="1" style="1" min="9" max="9"/>
+    <col width="24.5" customWidth="1" style="1" min="10" max="10"/>
+    <col width="104.25" customWidth="1" style="1" min="11" max="11"/>
+    <col width="66.75" customWidth="1" style="1" min="12" max="12"/>
+    <col width="11.125" customWidth="1" style="1" min="13" max="13"/>
+    <col width="8.25" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="1">
+    <row r="1" ht="30" customHeight="1" s="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>module</t>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="1">
+    <row r="2" ht="30" customHeight="1" s="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>首页</t>
@@ -1259,11 +1259,11 @@
       <c r="L2" s="7" t="n"/>
       <c r="M2" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="3" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>首页</t>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="4" s="1">
+    <row r="4" ht="30" customHeight="1" s="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>首页</t>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="1">
+    <row r="5" ht="30" customHeight="1" s="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>首页</t>
@@ -1444,7 +1444,7 @@
       <c r="L5" s="7" t="n"/>
       <c r="M5" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="6" s="1">
+    <row r="6" ht="30" customHeight="1" s="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>首页</t>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="7" s="1">
+    <row r="7" ht="30" customHeight="1" s="1">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1580,11 +1580,11 @@
       <c r="L7" s="7" t="n"/>
       <c r="M7" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="8" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1658,11 +1658,11 @@
       <c r="L8" s="7" t="n"/>
       <c r="M8" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="9" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" s="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1736,11 +1736,11 @@
       <c r="L9" s="7" t="n"/>
       <c r="M9" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="10" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" s="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1814,11 +1814,11 @@
       <c r="L10" s="7" t="n"/>
       <c r="M10" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="11" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1891,11 +1891,11 @@
       <c r="L11" s="7" t="n"/>
       <c r="M11" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="12" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -1969,11 +1969,11 @@
       <c r="L12" s="7" t="n"/>
       <c r="M12" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="13" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -2047,11 +2047,11 @@
       <c r="L13" s="7" t="n"/>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="14" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -2120,11 +2120,11 @@
       <c r="L14" s="7" t="n"/>
       <c r="M14" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="15" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -2194,11 +2194,11 @@
       <c r="L15" s="7" t="n"/>
       <c r="M15" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="16" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" s="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -2264,11 +2264,11 @@
       <c r="L16" s="7" t="n"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="17" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>案件中心</t>
@@ -2344,11 +2344,11 @@
       </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="18" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" s="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="19" s="1">
+    <row r="19" ht="30" customHeight="1" s="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="20" s="1">
+    <row r="20" ht="30" customHeight="1" s="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="21" s="1">
+    <row r="21" ht="30" customHeight="1" s="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="22" s="1">
+    <row r="22" ht="30" customHeight="1" s="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="23" s="1">
+    <row r="23" ht="30" customHeight="1" s="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="24" s="1">
+    <row r="24" ht="30" customHeight="1" s="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2877,11 +2877,11 @@
       <c r="L24" s="7" t="n"/>
       <c r="M24" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="25" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" s="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -2951,11 +2951,11 @@
       <c r="L25" s="7" t="n"/>
       <c r="M25" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="26" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" s="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -3021,11 +3021,11 @@
       <c r="L26" s="7" t="n"/>
       <c r="M26" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="27" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" s="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -3095,11 +3095,11 @@
       <c r="L27" s="7" t="n"/>
       <c r="M27" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="28" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" s="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -3169,11 +3169,11 @@
       <c r="L28" s="7" t="n"/>
       <c r="M28" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="29" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1" s="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
           <t>客户中心</t>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="30" s="1">
+    <row r="30" ht="30" customHeight="1" s="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
           <t>委案案件管理</t>
@@ -3319,11 +3319,11 @@
       <c r="L30" s="7" t="n"/>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="31" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1" s="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
           <t>委案案件管理</t>
@@ -3395,11 +3395,11 @@
       <c r="L31" s="7" t="n"/>
       <c r="M31" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="32" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1" s="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
           <t>委案案件管理</t>
@@ -3471,11 +3471,11 @@
       <c r="L32" s="7" t="n"/>
       <c r="M32" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="33" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" s="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3538,11 +3538,11 @@
       <c r="L33" s="7" t="n"/>
       <c r="M33" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="34" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1" s="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3605,11 +3605,11 @@
       <c r="L34" s="8" t="n"/>
       <c r="M34" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="35" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1" s="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3672,11 +3672,11 @@
       <c r="L35" s="8" t="n"/>
       <c r="M35" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="36" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" s="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3735,11 +3735,11 @@
       <c r="L36" s="7" t="n"/>
       <c r="M36" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="37" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1" s="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3802,11 +3802,11 @@
       <c r="L37" s="7" t="n"/>
       <c r="M37" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="38" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1" s="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3869,11 +3869,11 @@
       <c r="L38" s="7" t="n"/>
       <c r="M38" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="39" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1" s="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="M39" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="40" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1" s="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4011,11 +4011,11 @@
       </c>
       <c r="M40" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="41" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1" s="1">
       <c r="A41" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4074,11 +4074,11 @@
       <c r="L41" s="7" t="n"/>
       <c r="M41" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="42" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" s="1">
       <c r="A42" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4141,11 +4141,11 @@
       <c r="L42" s="7" t="n"/>
       <c r="M42" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="43" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" s="1">
       <c r="A43" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4212,11 +4212,11 @@
       </c>
       <c r="M43" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="44" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" s="1">
       <c r="A44" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4283,11 +4283,11 @@
       </c>
       <c r="M44" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="45" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1" s="1">
       <c r="A45" s="4" t="inlineStr">
         <is>
           <t>模板管理</t>
@@ -4346,11 +4346,11 @@
       <c r="L45" s="7" t="n"/>
       <c r="M45" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="46" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1" s="1">
       <c r="A46" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4413,11 +4413,11 @@
       <c r="L46" s="7" t="n"/>
       <c r="M46" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="47" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1" s="1">
       <c r="A47" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4489,11 +4489,11 @@
       <c r="L47" s="7" t="n"/>
       <c r="M47" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="48" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1" s="1">
       <c r="A48" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4564,11 +4564,11 @@
       <c r="L48" s="7" t="n"/>
       <c r="M48" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="49" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" s="1">
       <c r="A49" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4640,11 +4640,11 @@
       <c r="L49" s="7" t="n"/>
       <c r="M49" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="50" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1" s="1">
       <c r="A50" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4720,11 +4720,11 @@
       </c>
       <c r="M50" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="51" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1" s="1">
       <c r="A51" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4796,11 +4796,11 @@
       <c r="L51" s="7" t="n"/>
       <c r="M51" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="52" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" s="1">
       <c r="A52" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4876,11 +4876,11 @@
       </c>
       <c r="M52" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="53" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" s="1">
       <c r="A53" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -4952,11 +4952,11 @@
       <c r="L53" s="7" t="n"/>
       <c r="M53" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="54" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1" s="1">
       <c r="A54" s="4" t="inlineStr">
         <is>
           <t>任务管理</t>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="55" s="1">
+    <row r="55" ht="30" customHeight="1" s="1">
       <c r="A55" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="56" s="1">
+    <row r="56" ht="30" customHeight="1" s="1">
       <c r="A56" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5153,11 +5153,11 @@
       <c r="L56" s="7" t="n"/>
       <c r="M56" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="57" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" s="1">
       <c r="A57" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5224,11 +5224,11 @@
       <c r="L57" s="7" t="n"/>
       <c r="M57" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="58" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" s="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5296,11 +5296,11 @@
       <c r="L58" s="7" t="n"/>
       <c r="M58" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="59" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" s="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5372,7 +5372,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="60" s="1">
+    <row r="60" ht="30" customHeight="1" s="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
           <t>批次管理</t>
@@ -5442,11 +5442,11 @@
       <c r="L60" s="7" t="n"/>
       <c r="M60" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="61" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" s="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5509,11 +5509,11 @@
       <c r="L61" s="7" t="n"/>
       <c r="M61" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="62" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" s="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5576,11 +5576,11 @@
       <c r="L62" s="7" t="n"/>
       <c r="M62" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="63" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" s="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5643,11 +5643,11 @@
       <c r="L63" s="7" t="n"/>
       <c r="M63" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="64" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1" s="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5710,11 +5710,11 @@
       <c r="L64" s="7" t="n"/>
       <c r="M64" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="65" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1" s="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5777,11 +5777,11 @@
       <c r="L65" s="7" t="n"/>
       <c r="M65" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="66" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1" s="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
           <t>历史批次管理</t>
@@ -5844,11 +5844,11 @@
       <c r="L66" s="7" t="n"/>
       <c r="M66" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="67" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1" s="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -5911,11 +5911,11 @@
       <c r="L67" s="7" t="n"/>
       <c r="M67" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="68" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1" s="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -5978,11 +5978,11 @@
       <c r="L68" s="7" t="n"/>
       <c r="M68" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="69" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1" s="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6045,11 +6045,11 @@
       <c r="L69" s="7" t="n"/>
       <c r="M69" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="70" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1" s="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6112,11 +6112,11 @@
       <c r="L70" s="7" t="n"/>
       <c r="M70" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="71" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1" s="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6179,11 +6179,11 @@
       <c r="L71" s="7" t="n"/>
       <c r="M71" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="72" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1" s="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6246,11 +6246,11 @@
       <c r="L72" s="7" t="n"/>
       <c r="M72" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="73" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" s="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6309,11 +6309,11 @@
       <c r="L73" s="7" t="n"/>
       <c r="M73" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="74" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1" s="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
           <t>批次详情</t>
@@ -6379,11 +6379,11 @@
       <c r="L74" s="7" t="n"/>
       <c r="M74" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="75" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1" s="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6446,11 +6446,11 @@
       <c r="L75" s="7" t="n"/>
       <c r="M75" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="76" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1" s="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6513,11 +6513,11 @@
       <c r="L76" s="7" t="n"/>
       <c r="M76" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="77" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1" s="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6591,11 +6591,11 @@
       <c r="L77" s="7" t="n"/>
       <c r="M77" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="78" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1" s="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6669,11 +6669,11 @@
       <c r="L78" s="7" t="n"/>
       <c r="M78" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="79" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1" s="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6747,11 +6747,11 @@
       <c r="L79" s="7" t="n"/>
       <c r="M79" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="80" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1" s="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6825,11 +6825,11 @@
       <c r="L80" s="7" t="n"/>
       <c r="M80" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="81" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1" s="1">
       <c r="A81" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6903,11 +6903,11 @@
       <c r="L81" s="7" t="n"/>
       <c r="M81" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="82" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1" s="1">
       <c r="A82" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -6981,11 +6981,11 @@
       <c r="L82" s="7" t="n"/>
       <c r="M82" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="83" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1" s="1">
       <c r="A83" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7060,11 +7060,11 @@
       <c r="L83" s="7" t="n"/>
       <c r="M83" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="84" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1" s="1">
       <c r="A84" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7133,11 +7133,11 @@
       <c r="L84" s="7" t="n"/>
       <c r="M84" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="85" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1" s="1">
       <c r="A85" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="86" s="1">
+    <row r="86" ht="30" customHeight="1" s="1">
       <c r="A86" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="87" s="1">
+    <row r="87" ht="30" customHeight="1" s="1">
       <c r="A87" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7347,7 +7347,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="88" s="1">
+    <row r="88" ht="30" customHeight="1" s="1">
       <c r="A88" s="4" t="inlineStr">
         <is>
           <t>呼出记录</t>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="89" s="1">
+    <row r="89" ht="30" customHeight="1" s="1">
       <c r="A89" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7484,11 +7484,11 @@
       <c r="L89" s="7" t="n"/>
       <c r="M89" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="90" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1" s="1">
       <c r="A90" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7556,11 +7556,11 @@
       <c r="L90" s="7" t="n"/>
       <c r="M90" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="91" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1" s="1">
       <c r="A91" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7628,11 +7628,11 @@
       <c r="L91" s="7" t="n"/>
       <c r="M91" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="92" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1" s="1">
       <c r="A92" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7700,11 +7700,11 @@
       <c r="L92" s="7" t="n"/>
       <c r="M92" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="93" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1" s="1">
       <c r="A93" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7772,11 +7772,11 @@
       <c r="L93" s="7" t="n"/>
       <c r="M93" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="94" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1" s="1">
       <c r="A94" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7844,11 +7844,11 @@
       <c r="L94" s="7" t="n"/>
       <c r="M94" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="95" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1" s="1">
       <c r="A95" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7916,11 +7916,11 @@
       <c r="L95" s="7" t="n"/>
       <c r="M95" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="96" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1" s="1">
       <c r="A96" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -7989,11 +7989,11 @@
       <c r="L96" s="7" t="n"/>
       <c r="M96" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="97" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1" s="1">
       <c r="A97" s="4" t="inlineStr">
         <is>
           <t>呼入记录</t>
@@ -8062,11 +8062,11 @@
       <c r="L97" s="7" t="n"/>
       <c r="M97" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="98" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1" s="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8137,11 +8137,11 @@
       <c r="L98" s="7" t="n"/>
       <c r="M98" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="99" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1" s="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8213,11 +8213,11 @@
       <c r="L99" s="7" t="n"/>
       <c r="M99" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="100" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1" s="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8289,11 +8289,11 @@
       <c r="L100" s="7" t="n"/>
       <c r="M100" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="101" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1" s="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8365,11 +8365,11 @@
       <c r="L101" s="7" t="n"/>
       <c r="M101" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="102" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="30" customHeight="1" s="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8443,11 +8443,11 @@
       <c r="L102" s="7" t="n"/>
       <c r="M102" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="103" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="30" customHeight="1" s="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8521,11 +8521,11 @@
       <c r="L103" s="7" t="n"/>
       <c r="M103" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="104" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="30" customHeight="1" s="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
           <t>短信记录</t>
@@ -8597,11 +8597,11 @@
       <c r="L104" s="7" t="n"/>
       <c r="M104" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="105" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="30" customHeight="1" s="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
           <t>转人工记录</t>
@@ -8668,11 +8668,11 @@
       <c r="L105" s="7" t="n"/>
       <c r="M105" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="106" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="30" customHeight="1" s="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
           <t>转人工记录</t>
@@ -8740,11 +8740,11 @@
       <c r="L106" s="7" t="n"/>
       <c r="M106" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="107" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="30" customHeight="1" s="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
           <t>转人工记录</t>
@@ -8812,11 +8812,11 @@
       <c r="L107" s="7" t="n"/>
       <c r="M107" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="108" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="30" customHeight="1" s="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
           <t>转人工记录</t>
@@ -8884,11 +8884,11 @@
       <c r="L108" s="7" t="n"/>
       <c r="M108" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="109" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="30" customHeight="1" s="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="110" s="1">
+    <row r="110" ht="30" customHeight="1" s="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="111" s="1">
+    <row r="111" ht="30" customHeight="1" s="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="112" s="1">
+    <row r="112" ht="30" customHeight="1" s="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -9132,7 +9132,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="113" s="1">
+    <row r="113" ht="30" customHeight="1" s="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -9204,7 +9204,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="114" s="1">
+    <row r="114" ht="30" customHeight="1" s="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
           <t>通话维度</t>
@@ -9263,11 +9263,11 @@
       <c r="L114" s="7" t="n"/>
       <c r="M114" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="115" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="30" customHeight="1" s="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
           <t>回收维度</t>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="116" s="1">
+    <row r="116" ht="30" customHeight="1" s="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
           <t>回收维度</t>
@@ -9405,11 +9405,11 @@
       <c r="L116" s="7" t="n"/>
       <c r="M116" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="117" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="30" customHeight="1" s="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9483,7 +9483,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="118" s="1">
+    <row r="118" ht="30" customHeight="1" s="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="119" s="1">
+    <row r="119" ht="30" customHeight="1" s="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="120" s="1">
+    <row r="120" ht="30" customHeight="1" s="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9680,7 +9680,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="121" s="1">
+    <row r="121" ht="30" customHeight="1" s="1">
       <c r="A121" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9743,7 +9743,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="122" s="1">
+    <row r="122" ht="30" customHeight="1" s="1">
       <c r="A122" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9802,11 +9802,11 @@
       <c r="L122" s="7" t="n"/>
       <c r="M122" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="123" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="30" customHeight="1" s="1">
       <c r="A123" s="4" t="inlineStr">
         <is>
           <t>案件状况</t>
@@ -9869,7 +9869,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="124" s="1">
+    <row r="124" ht="30" customHeight="1" s="1">
       <c r="A124" s="4" t="inlineStr">
         <is>
           <t>呼叫状况</t>
@@ -9932,7 +9932,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="125" s="1">
+    <row r="125" ht="30" customHeight="1" s="1">
       <c r="A125" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -9999,11 +9999,11 @@
       </c>
       <c r="M125" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="126" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="30" customHeight="1" s="1">
       <c r="A126" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10070,11 +10070,11 @@
       </c>
       <c r="M126" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="127" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="30" customHeight="1" s="1">
       <c r="A127" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10141,11 +10141,11 @@
       </c>
       <c r="M127" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="128" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="30" customHeight="1" s="1">
       <c r="A128" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10204,11 +10204,11 @@
       <c r="L128" s="7" t="n"/>
       <c r="M128" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="129" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="30" customHeight="1" s="1">
       <c r="A129" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10275,11 +10275,11 @@
       </c>
       <c r="M129" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="130" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1" s="1">
       <c r="A130" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10338,11 +10338,11 @@
       <c r="L130" s="7" t="n"/>
       <c r="M130" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="131" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1" s="1">
       <c r="A131" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10409,11 +10409,11 @@
       </c>
       <c r="M131" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="132" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1" s="1">
       <c r="A132" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10472,11 +10472,11 @@
       <c r="L132" s="7" t="n"/>
       <c r="M132" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="133" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" s="1">
       <c r="A133" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10539,11 +10539,11 @@
       <c r="L133" s="7" t="n"/>
       <c r="M133" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="134" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="30" customHeight="1" s="1">
       <c r="A134" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10614,11 +10614,11 @@
       </c>
       <c r="M134" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="135" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1" s="1">
       <c r="A135" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10681,7 +10681,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="136" s="1">
+    <row r="136" ht="30" customHeight="1" s="1">
       <c r="A136" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10744,11 +10744,11 @@
       <c r="L136" s="7" t="n"/>
       <c r="M136" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="137" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1" s="1">
       <c r="A137" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10811,11 +10811,11 @@
       <c r="L137" s="7" t="n"/>
       <c r="M137" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="138" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1" s="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
           <t>话术管理</t>
@@ -10882,11 +10882,11 @@
       </c>
       <c r="M138" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="139" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="30" customHeight="1" s="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
           <t>引擎规则管理</t>
@@ -10949,11 +10949,11 @@
       <c r="L139" s="7" t="n"/>
       <c r="M139" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="140" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="30" customHeight="1" s="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
           <t>引擎规则管理</t>
@@ -11016,11 +11016,11 @@
       <c r="L140" s="7" t="n"/>
       <c r="M140" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="141" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="30" customHeight="1" s="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
           <t>引擎规则管理</t>
@@ -11083,11 +11083,11 @@
       <c r="L141" s="7" t="n"/>
       <c r="M141" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="142" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1" s="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
           <t>引擎规则管理</t>
@@ -11150,11 +11150,11 @@
       <c r="L142" s="7" t="n"/>
       <c r="M142" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="143" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="30" customHeight="1" s="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
           <t>引擎规则管理</t>
@@ -11217,11 +11217,11 @@
       <c r="L143" s="7" t="n"/>
       <c r="M143" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="144" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1" s="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
           <t>短信模板管理</t>
@@ -11284,11 +11284,11 @@
       <c r="L144" s="7" t="n"/>
       <c r="M144" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="145" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1" s="1">
       <c r="A145" s="4" t="inlineStr">
         <is>
           <t>短信模板管理</t>
@@ -11355,11 +11355,11 @@
       </c>
       <c r="M145" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="146" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="30" customHeight="1" s="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
           <t>短信模板管理</t>
@@ -11422,11 +11422,11 @@
       <c r="L146" s="7" t="n"/>
       <c r="M146" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="147" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" s="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="148" s="1">
+    <row r="148" ht="30" customHeight="1" s="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="149" s="1">
+    <row r="149" ht="30" customHeight="1" s="1">
       <c r="A149" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11627,7 +11627,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="150" s="1">
+    <row r="150" ht="30" customHeight="1" s="1">
       <c r="A150" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11694,7 +11694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="151" s="1">
+    <row r="151" ht="30" customHeight="1" s="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11761,7 +11761,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="152" s="1">
+    <row r="152" ht="30" customHeight="1" s="1">
       <c r="A152" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="153" s="1">
+    <row r="153" ht="30" customHeight="1" s="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11895,7 +11895,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="154" s="1">
+    <row r="154" ht="30" customHeight="1" s="1">
       <c r="A154" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="155" s="1">
+    <row r="155" ht="30" customHeight="1" s="1">
       <c r="A155" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12029,7 +12029,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="156" s="1">
+    <row r="156" ht="30" customHeight="1" s="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="157" s="1">
+    <row r="157" ht="30" customHeight="1" s="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="158" s="1">
+    <row r="158" ht="30" customHeight="1" s="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="159" s="1">
+    <row r="159" ht="30" customHeight="1" s="1">
       <c r="A159" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12297,7 +12297,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="160" s="1">
+    <row r="160" ht="30" customHeight="1" s="1">
       <c r="A160" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12368,7 +12368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="161" s="1">
+    <row r="161" ht="30" customHeight="1" s="1">
       <c r="A161" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12439,7 +12439,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="162" s="1">
+    <row r="162" ht="30" customHeight="1" s="1">
       <c r="A162" s="4" t="inlineStr">
         <is>
           <t>接入号管理</t>
@@ -12510,7 +12510,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="163" s="1">
+    <row r="163" ht="30" customHeight="1" s="1">
       <c r="A163" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12570,11 +12570,11 @@
       <c r="L163" s="7" t="n"/>
       <c r="M163" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="164" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="30" customHeight="1" s="1">
       <c r="A164" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12637,11 +12637,11 @@
       <c r="L164" s="7" t="n"/>
       <c r="M164" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="165" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1" s="1">
       <c r="A165" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12704,11 +12704,11 @@
       <c r="L165" s="7" t="n"/>
       <c r="M165" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="166" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="30" customHeight="1" s="1">
       <c r="A166" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12771,11 +12771,11 @@
       <c r="L166" s="7" t="n"/>
       <c r="M166" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="167" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1" s="1">
       <c r="A167" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12838,7 +12838,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="168" s="1">
+    <row r="168" ht="30" customHeight="1" s="1">
       <c r="A168" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12901,11 +12901,11 @@
       <c r="L168" s="7" t="n"/>
       <c r="M168" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="169" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="30" customHeight="1" s="1">
       <c r="A169" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -12968,7 +12968,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="170" s="1">
+    <row r="170" ht="30" customHeight="1" s="1">
       <c r="A170" s="4" t="inlineStr">
         <is>
           <t>外显号码</t>
@@ -13035,11 +13035,11 @@
       </c>
       <c r="M170" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="171" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="30" customHeight="1" s="1">
       <c r="A171" s="4" t="inlineStr">
         <is>
           <t>分组管理</t>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="172" s="1">
+    <row r="172" ht="30" customHeight="1" s="1">
       <c r="A172" s="4" t="inlineStr">
         <is>
           <t>分组管理</t>
@@ -13173,7 +13173,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="173" s="1">
+    <row r="173" ht="30" customHeight="1" s="1">
       <c r="A173" s="4" t="inlineStr">
         <is>
           <t>线路供应商</t>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="174" s="1">
+    <row r="174" ht="30" customHeight="1" s="1">
       <c r="A174" s="4" t="inlineStr">
         <is>
           <t>线路供应商</t>
@@ -13307,7 +13307,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="175" s="1">
+    <row r="175" ht="30" customHeight="1" s="1">
       <c r="A175" s="4" t="inlineStr">
         <is>
           <t>线路供应商</t>
@@ -13378,7 +13378,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="176" s="1">
+    <row r="176" ht="30" customHeight="1" s="1">
       <c r="A176" s="4" t="inlineStr">
         <is>
           <t>月账单</t>
@@ -13441,7 +13441,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="177" s="1">
+    <row r="177" ht="30" customHeight="1" s="1">
       <c r="A177" s="4" t="inlineStr">
         <is>
           <t>月账单</t>
@@ -13504,7 +13504,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="178" s="1">
+    <row r="178" ht="30" customHeight="1" s="1">
       <c r="A178" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13571,7 +13571,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="179" s="1">
+    <row r="179" ht="30" customHeight="1" s="1">
       <c r="A179" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13646,7 +13646,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="180" s="1">
+    <row r="180" ht="30" customHeight="1" s="1">
       <c r="A180" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13713,7 +13713,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="181" s="1">
+    <row r="181" ht="30" customHeight="1" s="1">
       <c r="A181" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="182" s="1">
+    <row r="182" ht="30" customHeight="1" s="1">
       <c r="A182" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="183" s="1">
+    <row r="183" ht="30" customHeight="1" s="1">
       <c r="A183" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13918,7 +13918,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="184" s="1">
+    <row r="184" ht="30" customHeight="1" s="1">
       <c r="A184" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -13989,7 +13989,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="185" s="1">
+    <row r="185" ht="30" customHeight="1" s="1">
       <c r="A185" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14056,7 +14056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="186" s="1">
+    <row r="186" ht="30" customHeight="1" s="1">
       <c r="A186" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="187" s="1">
+    <row r="187" ht="30" customHeight="1" s="1">
       <c r="A187" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="188" s="1">
+    <row r="188" ht="30" customHeight="1" s="1">
       <c r="A188" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14265,7 +14265,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="189" s="1">
+    <row r="189" ht="30" customHeight="1" s="1">
       <c r="A189" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14332,7 +14332,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="190" s="1">
+    <row r="190" ht="30" customHeight="1" s="1">
       <c r="A190" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14403,7 +14403,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="191" s="1">
+    <row r="191" ht="30" customHeight="1" s="1">
       <c r="A191" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14470,7 +14470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="192" s="1">
+    <row r="192" ht="30" customHeight="1" s="1">
       <c r="A192" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14541,7 +14541,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="193" s="1">
+    <row r="193" ht="30" customHeight="1" s="1">
       <c r="A193" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="194" s="1">
+    <row r="194" ht="30" customHeight="1" s="1">
       <c r="A194" s="4" t="inlineStr">
         <is>
           <t>音库列表</t>
@@ -14667,7 +14667,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="195" s="1">
+    <row r="195" ht="30" customHeight="1" s="1">
       <c r="A195" s="4" t="inlineStr">
         <is>
           <t>商户管理</t>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="196" s="1">
+    <row r="196" ht="30" customHeight="1" s="1">
       <c r="A196" s="4" t="inlineStr">
         <is>
           <t>商户管理</t>
@@ -14801,7 +14801,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="197" s="1">
+    <row r="197" ht="30" customHeight="1" s="1">
       <c r="A197" s="4" t="inlineStr">
         <is>
           <t>商户管理</t>
@@ -14868,7 +14868,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="198" s="1">
+    <row r="198" ht="30" customHeight="1" s="1">
       <c r="A198" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -14935,7 +14935,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="199" s="1">
+    <row r="199" ht="30" customHeight="1" s="1">
       <c r="A199" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15002,7 +15002,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="200" s="1">
+    <row r="200" ht="30" customHeight="1" s="1">
       <c r="A200" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15069,7 +15069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="201" s="1">
+    <row r="201" ht="30" customHeight="1" s="1">
       <c r="A201" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15136,7 +15136,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="202" s="1">
+    <row r="202" ht="30" customHeight="1" s="1">
       <c r="A202" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="203" s="1">
+    <row r="203" ht="30" customHeight="1" s="1">
       <c r="A203" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15270,7 +15270,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="204" s="1">
+    <row r="204" ht="30" customHeight="1" s="1">
       <c r="A204" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="205" s="1">
+    <row r="205" ht="30" customHeight="1" s="1">
       <c r="A205" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15396,7 +15396,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="206" s="1">
+    <row r="206" ht="30" customHeight="1" s="1">
       <c r="A206" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15459,7 +15459,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="207" s="1">
+    <row r="207" ht="30" customHeight="1" s="1">
       <c r="A207" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="208" s="1">
+    <row r="208" ht="30" customHeight="1" s="1">
       <c r="A208" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15593,7 +15593,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="209" s="1">
+    <row r="209" ht="30" customHeight="1" s="1">
       <c r="A209" s="4" t="inlineStr">
         <is>
           <t>坐席管理</t>
@@ -15660,7 +15660,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="210" s="1">
+    <row r="210" ht="30" customHeight="1" s="1">
       <c r="A210" s="4" t="inlineStr">
         <is>
           <t>通话计费</t>
@@ -15727,7 +15727,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="211" s="1">
+    <row r="211" ht="30" customHeight="1" s="1">
       <c r="A211" s="4" t="inlineStr">
         <is>
           <t>通话计费</t>
@@ -15794,7 +15794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="212" s="1">
+    <row r="212" ht="30" customHeight="1" s="1">
       <c r="A212" s="4" t="inlineStr">
         <is>
           <t>通话计费</t>
@@ -15857,7 +15857,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="213" s="1">
+    <row r="213" ht="30" customHeight="1" s="1">
       <c r="A213" s="4" t="inlineStr">
         <is>
           <t>短信计费</t>
@@ -15924,7 +15924,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="214" s="1">
+    <row r="214" ht="30" customHeight="1" s="1">
       <c r="A214" s="4" t="inlineStr">
         <is>
           <t>短信计费</t>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="215" s="1">
+    <row r="215" ht="30" customHeight="1" s="1">
       <c r="A215" s="4" t="inlineStr">
         <is>
           <t>短信计费</t>
@@ -16054,7 +16054,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="216" s="1">
+    <row r="216" ht="30" customHeight="1" s="1">
       <c r="A216" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16121,7 +16121,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="217" s="1">
+    <row r="217" ht="30" customHeight="1" s="1">
       <c r="A217" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16188,7 +16188,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="218" s="1">
+    <row r="218" ht="30" customHeight="1" s="1">
       <c r="A218" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16255,7 +16255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="219" s="1">
+    <row r="219" ht="30" customHeight="1" s="1">
       <c r="A219" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16322,7 +16322,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="220" s="1">
+    <row r="220" ht="30" customHeight="1" s="1">
       <c r="A220" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16385,7 +16385,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="221" s="1">
+    <row r="221" ht="30" customHeight="1" s="1">
       <c r="A221" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16448,7 +16448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="222" s="1">
+    <row r="222" ht="30" customHeight="1" s="1">
       <c r="A222" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16515,7 +16515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="223" s="1">
+    <row r="223" ht="30" customHeight="1" s="1">
       <c r="A223" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16582,7 +16582,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="224" s="1">
+    <row r="224" ht="30" customHeight="1" s="1">
       <c r="A224" s="4" t="inlineStr">
         <is>
           <t>产品类型管理</t>
@@ -16649,7 +16649,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="225" s="1">
+    <row r="225" ht="30" customHeight="1" s="1">
       <c r="A225" s="4" t="inlineStr">
         <is>
           <t>短信供应商</t>
@@ -16712,7 +16712,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="226" s="1">
+    <row r="226" ht="30" customHeight="1" s="1">
       <c r="A226" s="4" t="inlineStr">
         <is>
           <t>短信供应商</t>
@@ -16779,7 +16779,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="227" s="1">
+    <row r="227" ht="30" customHeight="1" s="1">
       <c r="A227" s="4" t="inlineStr">
         <is>
           <t>短信供应商</t>
@@ -16846,7 +16846,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="228" s="1">
+    <row r="228" ht="30" customHeight="1" s="1">
       <c r="A228" s="4" t="inlineStr">
         <is>
           <t>短信供应商</t>
@@ -16913,7 +16913,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="229" s="1">
+    <row r="229" ht="30" customHeight="1" s="1">
       <c r="A229" s="4" t="inlineStr">
         <is>
           <t>短信供应商</t>
@@ -16980,7 +16980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="230" s="1">
+    <row r="230" ht="30" customHeight="1" s="1">
       <c r="A230" s="4" t="inlineStr">
         <is>
           <t>按键功能配置</t>
@@ -17043,7 +17043,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="231" s="1">
+    <row r="231" ht="30" customHeight="1" s="1">
       <c r="A231" s="4" t="inlineStr">
         <is>
           <t>按键功能配置</t>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="232" s="1">
+    <row r="232" ht="30" customHeight="1" s="1">
       <c r="A232" s="4" t="inlineStr">
         <is>
           <t>按键功能配置</t>
@@ -17177,7 +17177,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="233" s="1">
+    <row r="233" ht="30" customHeight="1" s="1">
       <c r="A233" s="4" t="inlineStr">
         <is>
           <t>按键功能配置</t>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="234" s="1">
+    <row r="234" ht="30" customHeight="1" s="1">
       <c r="A234" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="235" s="1">
+    <row r="235" ht="30" customHeight="1" s="1">
       <c r="A235" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="236" s="1">
+    <row r="236" ht="30" customHeight="1" s="1">
       <c r="A236" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17425,7 +17425,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="237" s="1">
+    <row r="237" ht="30" customHeight="1" s="1">
       <c r="A237" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="238" s="1">
+    <row r="238" ht="30" customHeight="1" s="1">
       <c r="A238" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17551,7 +17551,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="239" s="1">
+    <row r="239" ht="30" customHeight="1" s="1">
       <c r="A239" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17614,11 +17614,11 @@
       <c r="L239" s="7" t="n"/>
       <c r="M239" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="240" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="30" customHeight="1" s="1">
       <c r="A240" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17681,11 +17681,11 @@
       <c r="L240" s="7" t="n"/>
       <c r="M240" s="5" t="inlineStr">
         <is>
-          <t>失败</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="241" s="1">
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="30" customHeight="1" s="1">
       <c r="A241" s="4" t="inlineStr">
         <is>
           <t>委案字段管理</t>
@@ -17752,7 +17752,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="242" s="1">
+    <row r="242" ht="30" customHeight="1" s="1">
       <c r="A242" s="4" t="inlineStr">
         <is>
           <t>参数管理</t>
@@ -17819,7 +17819,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="243" s="1">
+    <row r="243" ht="30" customHeight="1" s="1">
       <c r="A243" s="4" t="inlineStr">
         <is>
           <t>参数管理</t>
@@ -17886,7 +17886,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="244" s="1">
+    <row r="244" ht="30" customHeight="1" s="1">
       <c r="A244" s="4" t="inlineStr">
         <is>
           <t>停呼黑名单</t>
@@ -17949,7 +17949,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="245" s="1">
+    <row r="245" ht="30" customHeight="1" s="1">
       <c r="A245" s="4" t="inlineStr">
         <is>
           <t>停呼黑名单</t>
@@ -18015,12 +18015,12 @@
   </sheetData>
   <autoFilter ref="A1:M245"/>
   <hyperlinks>
-    <hyperlink display="https://test.robotsh.com/api/route/rest" ref="D2" r:id="rId1"/>
-    <hyperlink display="https://test.robotsh.com/api/route/rest" ref="D3" r:id="rId2"/>
-    <hyperlink display="https://test.robotsh.com/api/route/rest" ref="D5" r:id="rId3"/>
-    <hyperlink display="https://test.robotsh.com/api/route/rest" ref="D100" r:id="rId4"/>
+    <hyperlink ref="D2" display="https://test.robotsh.com/api/route/rest" r:id="rId1"/>
+    <hyperlink ref="D3" display="https://test.robotsh.com/api/route/rest" r:id="rId2"/>
+    <hyperlink ref="D5" display="https://test.robotsh.com/api/route/rest" r:id="rId3"/>
+    <hyperlink ref="D100" display="https://test.robotsh.com/api/route/rest" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>